--- a/data/trans_orig/P5711-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>647777</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>618574</v>
+        <v>618706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>678068</v>
+        <v>676347</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6278595555074334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5995543672451934</v>
+        <v>0.5996825324484933</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6572193185997548</v>
+        <v>0.6555507613988404</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>731</v>
@@ -765,19 +765,19 @@
         <v>735761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>698972</v>
+        <v>701318</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>772473</v>
+        <v>771958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5594657807457865</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5314918693850434</v>
+        <v>0.5332754815201353</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.587381516071534</v>
+        <v>0.5869896968627494</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1391</v>
@@ -786,19 +786,19 @@
         <v>1383537</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1335025</v>
+        <v>1335548</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1429441</v>
+        <v>1427862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5895332568750146</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5688619325791825</v>
+        <v>0.5690847036539575</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6090931304011648</v>
+        <v>0.6084201977584828</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>226068</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>203698</v>
+        <v>200052</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>254684</v>
+        <v>252493</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2191170514645811</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1974343684437807</v>
+        <v>0.1939013128282873</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2468529363053299</v>
+        <v>0.244729177973791</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -836,19 +836,19 @@
         <v>286041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258261</v>
+        <v>257262</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>318361</v>
+        <v>317908</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2175031123817543</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1963790302852624</v>
+        <v>0.1956198475461906</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2420786914128527</v>
+        <v>0.2417340290103764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>499</v>
@@ -857,19 +857,19 @@
         <v>512109</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>472619</v>
+        <v>474799</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>548543</v>
+        <v>557275</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2182126371157823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.201385705648833</v>
+        <v>0.2023146064071281</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2337374383002663</v>
+        <v>0.2374578962905383</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>108157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88590</v>
+        <v>90133</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126527</v>
+        <v>130080</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1048311002875058</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0858661491354956</v>
+        <v>0.08736159303155379</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1226365388606332</v>
+        <v>0.1260799193024391</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>160</v>
@@ -907,19 +907,19 @@
         <v>165014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>140418</v>
+        <v>142602</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187217</v>
+        <v>189641</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.125475099075995</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1067727020858028</v>
+        <v>0.1084331325240743</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1423583816221037</v>
+        <v>0.1442015694540302</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>268</v>
@@ -928,19 +928,19 @@
         <v>273170</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>242731</v>
+        <v>243963</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>304909</v>
+        <v>307784</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1163995224910221</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1034291902832103</v>
+        <v>0.1039538677905246</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.129923410424649</v>
+        <v>0.1311487459340419</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>40622</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29620</v>
+        <v>29436</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55878</v>
+        <v>56636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03937272105996287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02870965548995328</v>
+        <v>0.02853130706315976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05415995189996686</v>
+        <v>0.05489415627247644</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -978,19 +978,19 @@
         <v>104175</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>85641</v>
+        <v>86835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>123771</v>
+        <v>125074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07921363088877904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06512097540156227</v>
+        <v>0.06602825030060064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09411464528057736</v>
+        <v>0.09510508856376729</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -999,19 +999,19 @@
         <v>144797</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124011</v>
+        <v>123119</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168709</v>
+        <v>167573</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06169865076932508</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05284163525197359</v>
+        <v>0.05246164091079177</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0718880388115903</v>
+        <v>0.07140366984573897</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>9099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3883</v>
+        <v>4214</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18635</v>
+        <v>18453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.008819571680516773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003763167608221785</v>
+        <v>0.004084479147875824</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01806199874410911</v>
+        <v>0.01788557350275373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1049,19 +1049,19 @@
         <v>24122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15479</v>
+        <v>14480</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36794</v>
+        <v>34105</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01834237690768514</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01176998382532742</v>
+        <v>0.01101019609460467</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0279777367942355</v>
+        <v>0.0259333376125042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -1070,19 +1070,19 @@
         <v>33222</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>22833</v>
+        <v>22197</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47879</v>
+        <v>46499</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01415593274885599</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.009729357192230481</v>
+        <v>0.009458281978399893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02040169387337787</v>
+        <v>0.01981365759715512</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1261693</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1226338</v>
+        <v>1222973</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1295011</v>
+        <v>1294343</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.745059147455117</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7241811029713106</v>
+        <v>0.7221943222552306</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7647340823067892</v>
+        <v>0.7643396774867308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1024</v>
@@ -1195,19 +1195,19 @@
         <v>1034770</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>997109</v>
+        <v>997790</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1073562</v>
+        <v>1068034</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6517527149633113</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6280315753203655</v>
+        <v>0.6284606000573082</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6761858992025689</v>
+        <v>0.6727038831057869</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2245</v>
@@ -1216,19 +1216,19 @@
         <v>2296463</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2236704</v>
+        <v>2246291</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2347551</v>
+        <v>2351733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6999094238252703</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6816963583622835</v>
+        <v>0.6846180322623847</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7154798676560364</v>
+        <v>0.7167544515751662</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>302802</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>271279</v>
+        <v>272234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332966</v>
+        <v>335850</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1788115701415381</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1601968922719035</v>
+        <v>0.1607605074998402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1966242936593471</v>
+        <v>0.1983274692964399</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>352</v>
@@ -1266,19 +1266,19 @@
         <v>360548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>329884</v>
+        <v>326757</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>395152</v>
+        <v>396472</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2270921968115271</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2077780804471145</v>
+        <v>0.2058087155824494</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2488873080856182</v>
+        <v>0.2497191168330027</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>655</v>
@@ -1287,19 +1287,19 @@
         <v>663350</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622073</v>
+        <v>618829</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>711649</v>
+        <v>707993</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2021739139008202</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1895936815186179</v>
+        <v>0.1886047909578665</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2168941942511426</v>
+        <v>0.2157801392159861</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>94110</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77464</v>
+        <v>77718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115199</v>
+        <v>117481</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05557392785650753</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04574438563227474</v>
+        <v>0.045894137763818</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06802755414602228</v>
+        <v>0.06937550317085239</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>119</v>
@@ -1337,19 +1337,19 @@
         <v>125986</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>105390</v>
+        <v>104999</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149473</v>
+        <v>148106</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07935278460622373</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06638009185824917</v>
+        <v>0.0661340215075493</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09414573187219327</v>
+        <v>0.0932847204336634</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -1358,19 +1358,19 @@
         <v>220096</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>193816</v>
+        <v>191639</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>251085</v>
+        <v>249377</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06708019577193436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.059070561433564</v>
+        <v>0.05840705331670378</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07652509135714132</v>
+        <v>0.07600439190217631</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>25853</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17156</v>
+        <v>16822</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38727</v>
+        <v>37256</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01526663141744447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01013120742241194</v>
+        <v>0.009933669092492284</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0228692703136626</v>
+        <v>0.02200041882100594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1408,19 +1408,19 @@
         <v>53951</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40391</v>
+        <v>39616</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72234</v>
+        <v>69963</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0339813269582762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02544023306806403</v>
+        <v>0.0249521658245367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04549665582176785</v>
+        <v>0.04406645279841203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -1429,19 +1429,19 @@
         <v>79804</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>61475</v>
+        <v>63054</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100190</v>
+        <v>100406</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02432242005837749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01873614494094026</v>
+        <v>0.01921755966307528</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03053561484841356</v>
+        <v>0.03060153401408804</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>8956</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4076</v>
+        <v>3867</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18883</v>
+        <v>16858</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00528872312939282</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002406739514483414</v>
+        <v>0.00228355263774619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01115111435855318</v>
+        <v>0.00995486516988784</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -1479,19 +1479,19 @@
         <v>12417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6756</v>
+        <v>6212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22160</v>
+        <v>22050</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007820976660661621</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00425501337246558</v>
+        <v>0.003912912229031885</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01395762105610646</v>
+        <v>0.01388804637818319</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -1500,19 +1500,19 @@
         <v>21373</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13184</v>
+        <v>13560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34330</v>
+        <v>33744</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.006514046443597664</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004018177516018655</v>
+        <v>0.004132689928200609</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01046309735459038</v>
+        <v>0.01028438505177276</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>389914</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>368624</v>
+        <v>368610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>411070</v>
+        <v>410936</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7085188889261533</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6698312406001308</v>
+        <v>0.6698070276893825</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7469617997964895</v>
+        <v>0.7467181860143479</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>313</v>
@@ -1625,19 +1625,19 @@
         <v>327018</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>305733</v>
+        <v>305989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>347323</v>
+        <v>347839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6864184808133853</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6417401243537378</v>
+        <v>0.6422775057901554</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7290387700383852</v>
+        <v>0.7301228343386782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>686</v>
@@ -1646,19 +1646,19 @@
         <v>716932</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>685901</v>
+        <v>686363</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>744759</v>
+        <v>744706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6982641581340193</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.668040738179234</v>
+        <v>0.6684911302582308</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7253662539590676</v>
+        <v>0.7253143929161773</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>113859</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95129</v>
+        <v>95777</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133732</v>
+        <v>133752</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2068948666717331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1728608900113046</v>
+        <v>0.1740383903405082</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2430066668809462</v>
+        <v>0.2430433426175659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -1696,19 +1696,19 @@
         <v>102147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>84424</v>
+        <v>83082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121426</v>
+        <v>121553</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2144099560572297</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1772071487418388</v>
+        <v>0.1743904913756467</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2548760970632303</v>
+        <v>0.255143075596842</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>206</v>
@@ -1717,19 +1717,19 @@
         <v>216006</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>189586</v>
+        <v>190649</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>244389</v>
+        <v>242770</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2103819162381422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1846490215852402</v>
+        <v>0.185684891809109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2380254429018924</v>
+        <v>0.2364485905059267</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>32691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23242</v>
+        <v>22986</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>46396</v>
+        <v>47174</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05940411146545714</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04223383937649758</v>
+        <v>0.04176783080247604</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08430627619177869</v>
+        <v>0.08572118065978374</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -1767,19 +1767,19 @@
         <v>29689</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20133</v>
+        <v>20036</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42301</v>
+        <v>42745</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06231731200141714</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04225989376343201</v>
+        <v>0.04205654233568366</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0887914158211611</v>
+        <v>0.08972285532258895</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -1788,19 +1788,19 @@
         <v>62380</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>48387</v>
+        <v>47447</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>78287</v>
+        <v>80308</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06075585515667482</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04712733858467259</v>
+        <v>0.04621163655833749</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07624889715187891</v>
+        <v>0.0782170675100443</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>13858</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7601</v>
+        <v>7654</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24082</v>
+        <v>23673</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02518213293665646</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01381176053924637</v>
+        <v>0.01390767085503261</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04376052919855574</v>
+        <v>0.04301745582091294</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1838,19 +1838,19 @@
         <v>13058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6807</v>
+        <v>7377</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22316</v>
+        <v>22406</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02740875637812527</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01428733143167058</v>
+        <v>0.01548517497892001</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04684177473829004</v>
+        <v>0.04703157595278555</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1859,19 +1859,19 @@
         <v>26916</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17975</v>
+        <v>17244</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39767</v>
+        <v>39344</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02621530046239668</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0175067916354401</v>
+        <v>0.01679509578632284</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03873142983735369</v>
+        <v>0.0383198252658891</v>
       </c>
     </row>
     <row r="20">
@@ -1901,19 +1901,19 @@
         <v>4500</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1072</v>
+        <v>1525</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11294</v>
+        <v>11969</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.009445494749842572</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002250315131135673</v>
+        <v>0.003200766734100478</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02370553668727234</v>
+        <v>0.0251231215868749</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1922,19 +1922,19 @@
         <v>4500</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1515</v>
+        <v>1072</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11598</v>
+        <v>11640</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.004382770008767006</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00147600242121016</v>
+        <v>0.001043653684887698</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01129576789181679</v>
+        <v>0.01133711816261827</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>2299384</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2248224</v>
+        <v>2241576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2359147</v>
+        <v>2351266</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7020036663805855</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6863845522900117</v>
+        <v>0.6843546314401748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7202494335502831</v>
+        <v>0.7178432445640287</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2068</v>
@@ -2047,19 +2047,19 @@
         <v>2097548</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2038502</v>
+        <v>2035420</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2150332</v>
+        <v>2151956</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6207238851557068</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6032503288340347</v>
+        <v>0.6023383989349834</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.636344154380786</v>
+        <v>0.6368245794441608</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4322</v>
@@ -2068,19 +2068,19 @@
         <v>4396932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4319171</v>
+        <v>4310776</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4470017</v>
+        <v>4477147</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6607302462003106</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6490450425806347</v>
+        <v>0.6477834400500146</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.671712655070546</v>
+        <v>0.6727841151412496</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>642729</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>598782</v>
+        <v>599923</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>690890</v>
+        <v>692143</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1962256132492007</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1828086865671425</v>
+        <v>0.1831569330017387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.21092931063757</v>
+        <v>0.2113117529012352</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>724</v>
@@ -2118,19 +2118,19 @@
         <v>748737</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>704330</v>
+        <v>702656</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>801392</v>
+        <v>802193</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2215723377376142</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2084311918442083</v>
+        <v>0.2079356757530266</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2371544193561454</v>
+        <v>0.2373915235258602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1360</v>
@@ -2139,19 +2139,19 @@
         <v>1391466</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1327870</v>
+        <v>1324136</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1459746</v>
+        <v>1458524</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2090965387639921</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1995400182253631</v>
+        <v>0.198978887059366</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2193570658337522</v>
+        <v>0.2191734967657815</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>234958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>206871</v>
+        <v>206332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>267399</v>
+        <v>265747</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07173276004032955</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06315795286757341</v>
+        <v>0.06299340638063394</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0816370987977434</v>
+        <v>0.0811327589607941</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>306</v>
@@ -2189,19 +2189,19 @@
         <v>320689</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>287287</v>
+        <v>285781</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>356079</v>
+        <v>359298</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09490089734464634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08501620421917842</v>
+        <v>0.08457075278763745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1053738609878905</v>
+        <v>0.1063263100330762</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>536</v>
@@ -2210,19 +2210,19 @@
         <v>555647</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>510478</v>
+        <v>507779</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>599808</v>
+        <v>602188</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08349741111769587</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07670993963330215</v>
+        <v>0.07630435259460377</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09013361223658814</v>
+        <v>0.09049129113235223</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>80333</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63972</v>
+        <v>63599</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100918</v>
+        <v>100764</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02452565053046347</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01953076943070683</v>
+        <v>0.01941686215262766</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0308101862709879</v>
+        <v>0.03076320360803734</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -2260,19 +2260,19 @@
         <v>171184</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>146851</v>
+        <v>149343</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>197662</v>
+        <v>201042</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05065816457883793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04345741869314614</v>
+        <v>0.04419487623064964</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05849384222364972</v>
+        <v>0.05949410686127833</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>238</v>
@@ -2281,19 +2281,19 @@
         <v>251517</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>220220</v>
+        <v>220189</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>285242</v>
+        <v>284683</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03779559560698094</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03309265035893916</v>
+        <v>0.03308795263486466</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04286352713272008</v>
+        <v>0.04277955999701157</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>18055</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11026</v>
+        <v>10767</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29097</v>
+        <v>29818</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005512309799420719</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003366275509142251</v>
+        <v>0.003287031686259113</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008883227782852306</v>
+        <v>0.009103449626760593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -2331,19 +2331,19 @@
         <v>41039</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29642</v>
+        <v>30761</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>57175</v>
+        <v>57399</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01214471518319479</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00877198005216847</v>
+        <v>0.009102949523280618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0169198110503753</v>
+        <v>0.01698596104953799</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -2352,19 +2352,19 @@
         <v>59095</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44865</v>
+        <v>44275</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>76758</v>
+        <v>75559</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008880208311020496</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006741968682496328</v>
+        <v>0.006653310909868097</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01153440802621494</v>
+        <v>0.01135427923235089</v>
       </c>
     </row>
     <row r="27">
@@ -2695,19 +2695,19 @@
         <v>694458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>665425</v>
+        <v>664599</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>720906</v>
+        <v>722304</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7154828321192673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6855706329319811</v>
+        <v>0.6847195857526925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7427315169229689</v>
+        <v>0.7441712636230963</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>825</v>
@@ -2716,19 +2716,19 @@
         <v>883613</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>848915</v>
+        <v>847918</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>921408</v>
+        <v>915947</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.662549129268325</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6365325497719064</v>
+        <v>0.6357843001750488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6908885040300364</v>
+        <v>0.6867940374984304</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1477</v>
@@ -2737,19 +2737,19 @@
         <v>1578071</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1533585</v>
+        <v>1528256</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1623102</v>
+        <v>1623028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6848460933097381</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6655399925320933</v>
+        <v>0.6632273555303315</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7043884777487185</v>
+        <v>0.7043565299539892</v>
       </c>
     </row>
     <row r="5">
@@ -2766,19 +2766,19 @@
         <v>190939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>166412</v>
+        <v>163536</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>216504</v>
+        <v>217897</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1967194846343721</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1714504249499314</v>
+        <v>0.1684871829192071</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2230588671517773</v>
+        <v>0.2244939022881044</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -2787,19 +2787,19 @@
         <v>307875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>276653</v>
+        <v>280186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>341975</v>
+        <v>339655</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2308502749931841</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2074399210810137</v>
+        <v>0.2100890006472395</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2564188667011322</v>
+        <v>0.2546797943184955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -2808,19 +2808,19 @@
         <v>498814</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>459414</v>
+        <v>457946</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>540826</v>
+        <v>544212</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2164735553543106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1993750832469979</v>
+        <v>0.1987379805364013</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2347059273934521</v>
+        <v>0.2361755338707125</v>
       </c>
     </row>
     <row r="6">
@@ -2837,19 +2837,19 @@
         <v>64917</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49281</v>
+        <v>50124</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81987</v>
+        <v>81317</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06688229186020532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05077287318896457</v>
+        <v>0.05164162630499747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08446942925733998</v>
+        <v>0.08377875128255875</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -2858,19 +2858,19 @@
         <v>90726</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72757</v>
+        <v>72113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>110407</v>
+        <v>113091</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06802780623758935</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05455488774928661</v>
+        <v>0.0540716105032583</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08278534896502708</v>
+        <v>0.08479782323504222</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>143</v>
@@ -2879,19 +2879,19 @@
         <v>155643</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>131915</v>
+        <v>133151</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>181217</v>
+        <v>180344</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06754528770013928</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05724818585113043</v>
+        <v>0.05778440436872146</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07864405455983034</v>
+        <v>0.07826529566016588</v>
       </c>
     </row>
     <row r="7">
@@ -2908,19 +2908,19 @@
         <v>15370</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9062</v>
+        <v>9082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24387</v>
+        <v>24727</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01583537374600021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009336642885326707</v>
+        <v>0.009357039992134506</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0251255439897626</v>
+        <v>0.02547557022354446</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -2929,19 +2929,19 @@
         <v>32347</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21647</v>
+        <v>21516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45480</v>
+        <v>44872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0242543994962524</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01623154417272379</v>
+        <v>0.01613345382701958</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03410150266843771</v>
+        <v>0.0336458268480134</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -2950,19 +2950,19 @@
         <v>47717</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35444</v>
+        <v>33721</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65120</v>
+        <v>64502</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02070810093207096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01538190548993855</v>
+        <v>0.01463428576850865</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02826066027345947</v>
+        <v>0.02799245517933121</v>
       </c>
     </row>
     <row r="8">
@@ -2979,19 +2979,19 @@
         <v>4931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1979</v>
+        <v>1928</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11397</v>
+        <v>11703</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005080017640155021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002039364289982437</v>
+        <v>0.00198674180799849</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01174211742237511</v>
+        <v>0.01205759567390147</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -3000,19 +3000,19 @@
         <v>19096</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12035</v>
+        <v>11954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30020</v>
+        <v>29618</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01431839000464909</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.009023769028316796</v>
+        <v>0.008963224957509576</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02250971639113211</v>
+        <v>0.02220807978747307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -3021,19 +3021,19 @@
         <v>24027</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15344</v>
+        <v>15332</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>35809</v>
+        <v>35025</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01042696270374109</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006659132540294479</v>
+        <v>0.006653837062607127</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01554014944559089</v>
+        <v>0.01519994088459008</v>
       </c>
     </row>
     <row r="9">
@@ -3125,19 +3125,19 @@
         <v>1411161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1369367</v>
+        <v>1371498</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1451454</v>
+        <v>1453374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7193557561879698</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6980507636467453</v>
+        <v>0.6991370167798318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7398954630393614</v>
+        <v>0.7408743522302215</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1067</v>
@@ -3146,19 +3146,19 @@
         <v>1144958</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1100367</v>
+        <v>1102093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1179999</v>
+        <v>1187112</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6517651653475063</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6263817999876132</v>
+        <v>0.6273643463349396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.671712172644508</v>
+        <v>0.6757614691746733</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2411</v>
@@ -3167,19 +3167,19 @@
         <v>2556119</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2495325</v>
+        <v>2497554</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2613847</v>
+        <v>2613843</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6874236201201426</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6710742216749532</v>
+        <v>0.671673534718185</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7029485708825451</v>
+        <v>0.7029475407154275</v>
       </c>
     </row>
     <row r="11">
@@ -3196,19 +3196,19 @@
         <v>401774</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>366906</v>
+        <v>367482</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>440500</v>
+        <v>439009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2048089362851326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1870346182764499</v>
+        <v>0.1873282329303671</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2245499035123563</v>
+        <v>0.2237898894333153</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>401</v>
@@ -3217,19 +3217,19 @@
         <v>427864</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>392527</v>
+        <v>390760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>465391</v>
+        <v>468865</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2435608362464095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2234452236013654</v>
+        <v>0.2224395515081829</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2649229345673667</v>
+        <v>0.2669008161352338</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>773</v>
@@ -3238,19 +3238,19 @@
         <v>829638</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>777383</v>
+        <v>779301</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>884540</v>
+        <v>883536</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2231166759729106</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2090636852173421</v>
+        <v>0.2095793021487024</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.237881510350227</v>
+        <v>0.2376114880238901</v>
       </c>
     </row>
     <row r="12">
@@ -3267,19 +3267,19 @@
         <v>117484</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95389</v>
+        <v>96641</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>140057</v>
+        <v>139276</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0598888392522663</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04862545357623711</v>
+        <v>0.04926379740474602</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07139592888527699</v>
+        <v>0.07099770961199289</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -3288,19 +3288,19 @@
         <v>132127</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110375</v>
+        <v>108592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>157205</v>
+        <v>155428</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07521290215115103</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06283074178452411</v>
+        <v>0.06181557450711576</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08948872536228883</v>
+        <v>0.08847685435120481</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>228</v>
@@ -3309,19 +3309,19 @@
         <v>249611</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>218448</v>
+        <v>219370</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>284035</v>
+        <v>282565</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06712845730434269</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05874769365981231</v>
+        <v>0.05899563685955428</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07638627469336767</v>
+        <v>0.07599081932031977</v>
       </c>
     </row>
     <row r="13">
@@ -3338,19 +3338,19 @@
         <v>23706</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15319</v>
+        <v>15245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35948</v>
+        <v>35219</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01208459431806361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007809141727768978</v>
+        <v>0.007771099055648808</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01832471637449291</v>
+        <v>0.01795315158372291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3359,19 +3359,19 @@
         <v>40712</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28753</v>
+        <v>28831</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>56181</v>
+        <v>55627</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02317507701391003</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01636775288670178</v>
+        <v>0.01641205177039683</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03198073800688733</v>
+        <v>0.03166579911060638</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -3380,19 +3380,19 @@
         <v>64418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50835</v>
+        <v>49419</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83544</v>
+        <v>84168</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01732412245501312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01367119911419309</v>
+        <v>0.01329047814014081</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02246768347414043</v>
+        <v>0.02263543801939924</v>
       </c>
     </row>
     <row r="14">
@@ -3409,19 +3409,19 @@
         <v>7576</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3751</v>
+        <v>3734</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15156</v>
+        <v>14679</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003861873956567782</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001911921880606139</v>
+        <v>0.001903301014693788</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007725963164368198</v>
+        <v>0.007482671967860716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -3430,19 +3430,19 @@
         <v>11043</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5299</v>
+        <v>5611</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21033</v>
+        <v>22092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006286019241023145</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003016701235970653</v>
+        <v>0.003193802249972786</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0119730545074162</v>
+        <v>0.01257596175309872</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -3451,19 +3451,19 @@
         <v>18619</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10615</v>
+        <v>10788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28829</v>
+        <v>29318</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005007124147590959</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002854671836341324</v>
+        <v>0.002901127637614169</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.007753167225521887</v>
+        <v>0.007884460592890092</v>
       </c>
     </row>
     <row r="15">
@@ -3555,19 +3555,19 @@
         <v>359620</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>337945</v>
+        <v>338296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>378026</v>
+        <v>379137</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.750639600733889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7053959565699157</v>
+        <v>0.7061287829629154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7890592191273806</v>
+        <v>0.7913780061684044</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>311</v>
@@ -3576,19 +3576,19 @@
         <v>342909</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>322712</v>
+        <v>320734</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>360918</v>
+        <v>360990</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.749399073278994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7052616769844653</v>
+        <v>0.7009383158605488</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7887562920495421</v>
+        <v>0.788914406973282</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>642</v>
@@ -3597,19 +3597,19 @@
         <v>702529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>673412</v>
+        <v>674374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>730998</v>
+        <v>731540</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7500335786682422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7189476387650741</v>
+        <v>0.7199750057239132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7804282632744904</v>
+        <v>0.7810065743421191</v>
       </c>
     </row>
     <row r="17">
@@ -3626,19 +3626,19 @@
         <v>83098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>67088</v>
+        <v>65444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101426</v>
+        <v>100686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1734512695915595</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1400330809348755</v>
+        <v>0.1366025028971678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.211708585337695</v>
+        <v>0.2101627967154732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>82</v>
@@ -3647,19 +3647,19 @@
         <v>93611</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75771</v>
+        <v>76166</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111030</v>
+        <v>114702</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2045793474190605</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1655915192288648</v>
+        <v>0.1664541947408911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.242648207848123</v>
+        <v>0.2506711999622152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>158</v>
@@ -3668,19 +3668,19 @@
         <v>176709</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152358</v>
+        <v>151213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>201764</v>
+        <v>202483</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1886579479687287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1626609152162825</v>
+        <v>0.1614377098204149</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2154070025614541</v>
+        <v>0.216174972133498</v>
       </c>
     </row>
     <row r="18">
@@ -3697,19 +3697,19 @@
         <v>29968</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19485</v>
+        <v>20186</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45142</v>
+        <v>44787</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06255342390406651</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04067152356292045</v>
+        <v>0.04213373268758014</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09422503953123372</v>
+        <v>0.09348405826999939</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -3718,19 +3718,19 @@
         <v>15363</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8087</v>
+        <v>9084</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26664</v>
+        <v>26819</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03357439567941888</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01767311612158991</v>
+        <v>0.0198521534454546</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05827269185412046</v>
+        <v>0.05861020953196579</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>37</v>
@@ -3739,19 +3739,19 @@
         <v>45331</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>31155</v>
+        <v>31512</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62014</v>
+        <v>61827</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04839659853447049</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03326143640545787</v>
+        <v>0.03364269821624378</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06620753356404444</v>
+        <v>0.06600720591755881</v>
       </c>
     </row>
     <row r="19">
@@ -3768,19 +3768,19 @@
         <v>3002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8192</v>
+        <v>8641</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006265230755679072</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001940063615129334</v>
+        <v>0.001918032334459903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01709931152308337</v>
+        <v>0.01803667985071345</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -3789,19 +3789,19 @@
         <v>5696</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12605</v>
+        <v>12698</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01244718362252658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.004275427254493079</v>
+        <v>0.004262802725912642</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0275469037185078</v>
+        <v>0.0277499738230007</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -3810,19 +3810,19 @@
         <v>8697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3753</v>
+        <v>3903</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16511</v>
+        <v>17127</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009285236343878804</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004006284738803607</v>
+        <v>0.004167127939121344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0176273368223369</v>
+        <v>0.01828562801425758</v>
       </c>
     </row>
     <row r="20">
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11348</v>
+        <v>13081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007090475014805902</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02368614692081926</v>
+        <v>0.02730490204931134</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12177</v>
+        <v>12156</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003626638484679765</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01300060877419783</v>
+        <v>0.0129777909068074</v>
       </c>
     </row>
     <row r="21">
@@ -3977,19 +3977,19 @@
         <v>2465239</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2409168</v>
+        <v>2413487</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2520005</v>
+        <v>2521489</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7226472179707163</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.70621059399802</v>
+        <v>0.7074768153543248</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7387009092062635</v>
+        <v>0.7391359968257837</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2203</v>
@@ -3998,19 +3998,19 @@
         <v>2371479</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2304878</v>
+        <v>2310281</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2425977</v>
+        <v>2424630</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.668410686349354</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6496387979453919</v>
+        <v>0.6511616914094465</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6837712872710108</v>
+        <v>0.6833913797705102</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4530</v>
@@ -4019,19 +4019,19 @@
         <v>4836719</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4754322</v>
+        <v>4760775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4914464</v>
+        <v>4915564</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6949969153743895</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6831570882686681</v>
+        <v>0.6840843429154438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7061682531816177</v>
+        <v>0.7063262332929252</v>
       </c>
     </row>
     <row r="23">
@@ -4048,19 +4048,19 @@
         <v>675811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>628510</v>
+        <v>625050</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>728924</v>
+        <v>721567</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1981035610780658</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1842381445758859</v>
+        <v>0.183223935078153</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2136730083776541</v>
+        <v>0.2115162995245581</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>772</v>
@@ -4069,19 +4069,19 @@
         <v>829350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>778355</v>
+        <v>782058</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>882295</v>
+        <v>886714</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.23375553263604</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2193825409756581</v>
+        <v>0.2204260777006956</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.248678441760416</v>
+        <v>0.2499237922391864</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1391</v>
@@ -4090,19 +4090,19 @@
         <v>1505161</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1439015</v>
+        <v>1438590</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1576092</v>
+        <v>1571990</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2162792771916189</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2067746712919779</v>
+        <v>0.2067136010620561</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2264714556156641</v>
+        <v>0.2258820304707228</v>
       </c>
     </row>
     <row r="24">
@@ -4119,19 +4119,19 @@
         <v>212369</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>183915</v>
+        <v>181869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>242957</v>
+        <v>242450</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06225282740800752</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.05391194019902846</v>
+        <v>0.05331204261681267</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07121916456921923</v>
+        <v>0.07107065044135495</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>215</v>
@@ -4140,19 +4140,19 @@
         <v>238215</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>211113</v>
+        <v>205504</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>271814</v>
+        <v>268600</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06714192331162321</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05950316508271322</v>
+        <v>0.05792213383764286</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07661188289937501</v>
+        <v>0.07570593889529328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>408</v>
@@ -4161,19 +4161,19 @@
         <v>450585</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>408047</v>
+        <v>409129</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>493358</v>
+        <v>492532</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06474533526417342</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05863298220274667</v>
+        <v>0.05878848084440146</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07089146559079132</v>
+        <v>0.07077282840978316</v>
       </c>
     </row>
     <row r="25">
@@ -4190,19 +4190,19 @@
         <v>42078</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30193</v>
+        <v>30658</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56135</v>
+        <v>56089</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01233451920325112</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008850651067994906</v>
+        <v>0.008986996092821649</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01645524964373875</v>
+        <v>0.01644160701251502</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -4211,19 +4211,19 @@
         <v>78754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>63142</v>
+        <v>63018</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>99603</v>
+        <v>100584</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02219721093349783</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01779671981993</v>
+        <v>0.01776180936656997</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02807356263642026</v>
+        <v>0.02835010829474457</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>112</v>
@@ -4232,19 +4232,19 @@
         <v>120832</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>100859</v>
+        <v>100555</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>144919</v>
+        <v>145077</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01736261378458309</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0144926049515911</v>
+        <v>0.01444896995590115</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02082368763118137</v>
+        <v>0.02084642020930606</v>
       </c>
     </row>
     <row r="26">
@@ -4261,19 +4261,19 @@
         <v>15904</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8881</v>
+        <v>9552</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26547</v>
+        <v>25918</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004661874339959291</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.00260326009785902</v>
+        <v>0.00280001895321968</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007781822162813934</v>
+        <v>0.007597602208872182</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -4282,19 +4282,19 @@
         <v>30138</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19502</v>
+        <v>19982</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>43155</v>
+        <v>44054</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008494646769484977</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005496705545363933</v>
+        <v>0.005631999019216322</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01216347015153238</v>
+        <v>0.01241688104036938</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -4303,19 +4303,19 @@
         <v>46042</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33820</v>
+        <v>33863</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>63480</v>
+        <v>63718</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006615858385235195</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004859697455210079</v>
+        <v>0.004865768196602018</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.00912162624367061</v>
+        <v>0.009155709588238185</v>
       </c>
     </row>
     <row r="27">
@@ -4646,19 +4646,19 @@
         <v>410761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>382417</v>
+        <v>382262</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>437627</v>
+        <v>436102</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5445255120391882</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5069504273255363</v>
+        <v>0.5067456453583569</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5801407885801957</v>
+        <v>0.5781189724226463</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>451</v>
@@ -4667,19 +4667,19 @@
         <v>500249</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>466418</v>
+        <v>470442</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>532034</v>
+        <v>534147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.504026813629736</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4699403389560708</v>
+        <v>0.4739944232418174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5360515118922374</v>
+        <v>0.5381804095029222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>862</v>
@@ -4688,19 +4688,19 @@
         <v>911010</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>868292</v>
+        <v>873360</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>952891</v>
+        <v>953521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5215154572025873</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4970615108281481</v>
+        <v>0.4999623826460231</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5454907438755974</v>
+        <v>0.5458513090974483</v>
       </c>
     </row>
     <row r="5">
@@ -4717,19 +4717,19 @@
         <v>254865</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>230327</v>
+        <v>232450</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>282117</v>
+        <v>282856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3378615114964021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3053328159674096</v>
+        <v>0.3081473473365571</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.373988601558803</v>
+        <v>0.3749683511719127</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>289</v>
@@ -4738,19 +4738,19 @@
         <v>321916</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292239</v>
+        <v>289156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356305</v>
+        <v>350561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.324347138539179</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2944458169404406</v>
+        <v>0.2913399396937462</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3589955199689192</v>
+        <v>0.35320842463467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>548</v>
@@ -4759,19 +4759,19 @@
         <v>576781</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>537918</v>
+        <v>537260</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>617503</v>
+        <v>618056</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3301830804593344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3079358321313864</v>
+        <v>0.3075590927204773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3534947953015934</v>
+        <v>0.353811673809118</v>
       </c>
     </row>
     <row r="6">
@@ -4788,19 +4788,19 @@
         <v>72492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>57849</v>
+        <v>58191</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89954</v>
+        <v>89765</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09609914552476609</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07668730385424792</v>
+        <v>0.07714046893625001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1192473567114003</v>
+        <v>0.1189963702374502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -4809,19 +4809,19 @@
         <v>123873</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>103613</v>
+        <v>104348</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>149095</v>
+        <v>147297</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1248085358149487</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1043951126695203</v>
+        <v>0.1051363890410767</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1502211945092539</v>
+        <v>0.1484096379589311</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>185</v>
@@ -4830,19 +4830,19 @@
         <v>196365</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>171123</v>
+        <v>169675</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>225286</v>
+        <v>225367</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1124108955524731</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09796063909635726</v>
+        <v>0.09713190414935398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1289668809237458</v>
+        <v>0.129013408638578</v>
       </c>
     </row>
     <row r="7">
@@ -4859,19 +4859,19 @@
         <v>14365</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8370</v>
+        <v>8033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22678</v>
+        <v>23558</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0190424396758361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01109542395997398</v>
+        <v>0.01064914244718503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03006257294398641</v>
+        <v>0.03122903321436502</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>32</v>
@@ -4880,19 +4880,19 @@
         <v>37586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25678</v>
+        <v>25169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51728</v>
+        <v>52073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03787014247061152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02587229483889561</v>
+        <v>0.02535889364292177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05211903712438865</v>
+        <v>0.05246661220118457</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -4901,19 +4901,19 @@
         <v>51951</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39225</v>
+        <v>38890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68711</v>
+        <v>71691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02973973343513121</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02245446100897659</v>
+        <v>0.0222626966401162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03933429999982261</v>
+        <v>0.04104007476940905</v>
       </c>
     </row>
     <row r="8">
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5654</v>
+        <v>6516</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002471391263807445</v>
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.007495034625402561</v>
+        <v>0.008637673870335245</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -4951,19 +4951,19 @@
         <v>8880</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4057</v>
+        <v>4060</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17425</v>
+        <v>16936</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008947369545524811</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004087918416077384</v>
+        <v>0.004090674971683041</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01755663204692164</v>
+        <v>0.01706412081408646</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -4972,19 +4972,19 @@
         <v>10745</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5355</v>
+        <v>5120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19620</v>
+        <v>18522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006150833350473981</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003065788539312592</v>
+        <v>0.002930880753048223</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01123177286739418</v>
+        <v>0.01060334111792787</v>
       </c>
     </row>
     <row r="9">
@@ -5076,19 +5076,19 @@
         <v>1179069</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1136435</v>
+        <v>1133343</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1230508</v>
+        <v>1224297</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5688065686381066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5482390277739358</v>
+        <v>0.5467470467176138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5936215492330154</v>
+        <v>0.590625450373589</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>995</v>
@@ -5097,19 +5097,19 @@
         <v>1030416</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>985184</v>
+        <v>984911</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1076078</v>
+        <v>1073198</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5191586648877262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4963690671164972</v>
+        <v>0.4962318076779126</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5421648370967658</v>
+        <v>0.5407135842611337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2102</v>
@@ -5118,19 +5118,19 @@
         <v>2209486</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2144913</v>
+        <v>2146346</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2274262</v>
+        <v>2277034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5445216069958286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5286078483258271</v>
+        <v>0.5289609635602539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5604854332145564</v>
+        <v>0.5611686829043269</v>
       </c>
     </row>
     <row r="11">
@@ -5147,19 +5147,19 @@
         <v>661612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>618833</v>
+        <v>617449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704882</v>
+        <v>706698</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3191747281477185</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.298537314373672</v>
+        <v>0.2978697805509647</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3400490784536239</v>
+        <v>0.3409251705943236</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>676</v>
@@ -5168,19 +5168,19 @@
         <v>706575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>662244</v>
+        <v>664557</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>752800</v>
+        <v>751174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3559964315447778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3336610163846894</v>
+        <v>0.3348263821171998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3792860763622673</v>
+        <v>0.3784669607292065</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1303</v>
@@ -5189,19 +5189,19 @@
         <v>1368187</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1307633</v>
+        <v>1307572</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1428449</v>
+        <v>1427245</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3371858340968608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3222626196231174</v>
+        <v>0.3222475466642348</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3520372643979631</v>
+        <v>0.3517406024564298</v>
       </c>
     </row>
     <row r="12">
@@ -5218,19 +5218,19 @@
         <v>187799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>160261</v>
+        <v>162480</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>216403</v>
+        <v>216445</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0905979949299598</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07731291670136943</v>
+        <v>0.07838367378229294</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1043969678760538</v>
+        <v>0.1044171992113506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>189</v>
@@ -5239,19 +5239,19 @@
         <v>201666</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>175125</v>
+        <v>176629</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>231235</v>
+        <v>232711</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1016062111952925</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08823393983977354</v>
+        <v>0.08899191601363711</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1165039687562581</v>
+        <v>0.1172477926312852</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>363</v>
@@ -5260,19 +5260,19 @@
         <v>389465</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>356983</v>
+        <v>352356</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>431368</v>
+        <v>430845</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0959825950753679</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08797756632873964</v>
+        <v>0.08683716246147537</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1063095020115458</v>
+        <v>0.1061805043633352</v>
       </c>
     </row>
     <row r="13">
@@ -5289,19 +5289,19 @@
         <v>27813</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18040</v>
+        <v>17249</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40304</v>
+        <v>39383</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0134173327840279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008702809580954752</v>
+        <v>0.008321472468467379</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01944325703687828</v>
+        <v>0.01899930905137996</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -5310,19 +5310,19 @@
         <v>33124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23438</v>
+        <v>23292</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46843</v>
+        <v>45863</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01668885830997499</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0118090793163848</v>
+        <v>0.01173522213364375</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02360103278172749</v>
+        <v>0.02310752262907203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>57</v>
@@ -5331,19 +5331,19 @@
         <v>60936</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>46416</v>
+        <v>46123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78324</v>
+        <v>78073</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01501757903629287</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01143897966837274</v>
+        <v>0.01136694411023914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01930278405733439</v>
+        <v>0.01924081207625243</v>
       </c>
     </row>
     <row r="14">
@@ -5360,19 +5360,19 @@
         <v>16590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9825</v>
+        <v>9522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25887</v>
+        <v>27032</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008003375500187071</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004739759118291998</v>
+        <v>0.004593387240510311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01248856140811871</v>
+        <v>0.01304078186757489</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -5381,19 +5381,19 @@
         <v>13000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6917</v>
+        <v>7025</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21516</v>
+        <v>22522</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.006549834062228531</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003484837143898854</v>
+        <v>0.003539570428877024</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01084025299449375</v>
+        <v>0.01134734815788225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -5402,19 +5402,19 @@
         <v>29590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20171</v>
+        <v>20341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>41459</v>
+        <v>42306</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007292384795649737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004971003564938708</v>
+        <v>0.005012957428254385</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01021742055075709</v>
+        <v>0.01042616588103451</v>
       </c>
     </row>
     <row r="15">
@@ -5506,19 +5506,19 @@
         <v>338757</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>314531</v>
+        <v>313323</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>361570</v>
+        <v>361471</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.620409919371037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5760424434429956</v>
+        <v>0.5738288560932853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.662190084293577</v>
+        <v>0.662009499161621</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -5527,19 +5527,19 @@
         <v>344999</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>318166</v>
+        <v>319903</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>367544</v>
+        <v>367106</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6293229289463694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5803765033263206</v>
+        <v>0.5835451375442048</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6704480445994068</v>
+        <v>0.6696500468044766</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>646</v>
@@ -5548,19 +5548,19 @@
         <v>683755</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>650997</v>
+        <v>649373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>718714</v>
+        <v>713240</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6248753224075667</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5949379057871769</v>
+        <v>0.5934537702593757</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6568234384569934</v>
+        <v>0.6518204251764417</v>
       </c>
     </row>
     <row r="17">
@@ -5577,19 +5577,19 @@
         <v>174262</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>152308</v>
+        <v>153104</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>197361</v>
+        <v>197520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3191492718791427</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.278940797338078</v>
+        <v>0.2803991549527042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3614529214292588</v>
+        <v>0.3617440163369429</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -5598,19 +5598,19 @@
         <v>148569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128120</v>
+        <v>127437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>171159</v>
+        <v>170714</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2710099665693298</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2337079669192266</v>
+        <v>0.2324611192866278</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3122161106111989</v>
+        <v>0.311405449193446</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -5619,19 +5619,19 @@
         <v>322831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>292580</v>
+        <v>294110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>353502</v>
+        <v>354338</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2950315596417633</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.267385210090276</v>
+        <v>0.2687833960000668</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3230604894398233</v>
+        <v>0.3238251004584635</v>
       </c>
     </row>
     <row r="18">
@@ -5648,19 +5648,19 @@
         <v>29847</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19991</v>
+        <v>19803</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>42731</v>
+        <v>42597</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05466316551565419</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03661275817224021</v>
+        <v>0.03626741142779116</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07825932583855651</v>
+        <v>0.07801386040125405</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>40</v>
@@ -5669,19 +5669,19 @@
         <v>42901</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31376</v>
+        <v>31426</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>57212</v>
+        <v>57702</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07825771381269907</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05723360634352846</v>
+        <v>0.0573243760701251</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1043625538875373</v>
+        <v>0.1052562854206716</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>66</v>
@@ -5690,19 +5690,19 @@
         <v>72749</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>57086</v>
+        <v>57911</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92099</v>
+        <v>91509</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06648399513786897</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05216971604744113</v>
+        <v>0.05292377214210697</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08416785390597346</v>
+        <v>0.08362920509683662</v>
       </c>
     </row>
     <row r="19">
@@ -5719,19 +5719,19 @@
         <v>3155</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9517</v>
+        <v>9422</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.005777643234166213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001880305000494148</v>
+        <v>0.001892339324711611</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01743016256586813</v>
+        <v>0.01725496619327733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5740,19 +5740,19 @@
         <v>9324</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4126</v>
+        <v>4422</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16366</v>
+        <v>16936</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01700738460148143</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00752579799232624</v>
+        <v>0.008065718783092469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02985441375428972</v>
+        <v>0.03089419542603428</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -5761,19 +5761,19 @@
         <v>12478</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6802</v>
+        <v>6417</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>21220</v>
+        <v>21785</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01140372506177197</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00621620940385743</v>
+        <v>0.00586408797162153</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0193931246567413</v>
+        <v>0.01990923115667356</v>
       </c>
     </row>
     <row r="20">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8531</v>
+        <v>8346</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.004402006070120278</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01556242365757114</v>
+        <v>0.01522478740816003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7233</v>
+        <v>7315</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002205397751028965</v>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.006610117529701803</v>
+        <v>0.006685245131339551</v>
       </c>
     </row>
     <row r="21">
@@ -5928,19 +5928,19 @@
         <v>1928588</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1869044</v>
+        <v>1867729</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1981952</v>
+        <v>1987104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.571729618909021</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5540778563919878</v>
+        <v>0.5536881925358049</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5875493991256269</v>
+        <v>0.5890767920284999</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1779</v>
@@ -5949,19 +5949,19 @@
         <v>1875663</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1811138</v>
+        <v>1820230</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1933097</v>
+        <v>1936821</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5320290036656581</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5137263541139244</v>
+        <v>0.5163052932675981</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5483198613627919</v>
+        <v>0.5493762623895176</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3610</v>
@@ -5970,19 +5970,19 @@
         <v>3804251</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3723142</v>
+        <v>3724965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3887994</v>
+        <v>3899356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5514412568847697</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.539684179419347</v>
+        <v>0.5399484470390074</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5635801051822715</v>
+        <v>0.5652271426228229</v>
       </c>
     </row>
     <row r="23">
@@ -5999,19 +5999,19 @@
         <v>1090739</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1037067</v>
+        <v>1032170</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1146912</v>
+        <v>1145253</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3233494592782349</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3074384150185663</v>
+        <v>0.3059868256569754</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3400021172153691</v>
+        <v>0.3395101024513093</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1106</v>
@@ -6020,19 +6020,19 @@
         <v>1177060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1122217</v>
+        <v>1122763</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1240078</v>
+        <v>1228827</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3338712452589356</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.318315130249893</v>
+        <v>0.3184698706620807</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3517462371437875</v>
+        <v>0.3485548261740186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2150</v>
@@ -6041,19 +6041,19 @@
         <v>2267799</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2189279</v>
+        <v>2183899</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2348556</v>
+        <v>2348462</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3287264490757377</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.317344728165906</v>
+        <v>0.316564834764253</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3404325496350546</v>
+        <v>0.3404188232868049</v>
       </c>
     </row>
     <row r="24">
@@ -6070,19 +6070,19 @@
         <v>290138</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>256189</v>
+        <v>259844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>323332</v>
+        <v>325451</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08601149933197984</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0759472822591864</v>
+        <v>0.07703061909511837</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0958517037967276</v>
+        <v>0.09647991730137594</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>339</v>
@@ -6091,19 +6091,19 @@
         <v>368440</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>332689</v>
+        <v>334337</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>408232</v>
+        <v>404659</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1045075459979085</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09436681073502766</v>
+        <v>0.09483405985990183</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1157944041939897</v>
+        <v>0.1147809097655882</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>614</v>
@@ -6112,19 +6112,19 @@
         <v>658579</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>611133</v>
+        <v>610808</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>707408</v>
+        <v>709374</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09546360702541262</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08858618753005916</v>
+        <v>0.0885389696169504</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.102541537954158</v>
+        <v>0.1028265903139051</v>
       </c>
     </row>
     <row r="25">
@@ -6141,19 +6141,19 @@
         <v>45332</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33243</v>
+        <v>32207</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>59864</v>
+        <v>60303</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01343863257703828</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009854902846110555</v>
+        <v>0.009547616893390906</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01774677648210898</v>
+        <v>0.01787678549465727</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>73</v>
@@ -6162,19 +6162,19 @@
         <v>80034</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62991</v>
+        <v>62486</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101290</v>
+        <v>98870</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0227013935484811</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01786731125023471</v>
+        <v>0.01772415253714907</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.028730800631484</v>
+        <v>0.02804439300286263</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -6183,19 +6183,19 @@
         <v>125365</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104797</v>
+        <v>105482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>151568</v>
+        <v>152827</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0181722178572854</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01519073448586609</v>
+        <v>0.01529009889073</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02197039183237532</v>
+        <v>0.02215292129379672</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>18454</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11336</v>
+        <v>11142</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>30226</v>
+        <v>28388</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005470789903725936</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003360607941107784</v>
+        <v>0.003303095038271527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008960400008770767</v>
+        <v>0.008415478285980436</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -6233,19 +6233,19 @@
         <v>24293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>15997</v>
+        <v>15656</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>36154</v>
+        <v>35577</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006890811529016707</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004537578800744233</v>
+        <v>0.004440890641966845</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01025510139440132</v>
+        <v>0.01009130908816071</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -6254,19 +6254,19 @@
         <v>42748</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30563</v>
+        <v>31327</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>57719</v>
+        <v>57133</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.006196469156794469</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004430256199038429</v>
+        <v>0.004540908848926655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008366528474302809</v>
+        <v>0.008281639122159869</v>
       </c>
     </row>
     <row r="27">
@@ -6597,19 +6597,19 @@
         <v>298445</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>274706</v>
+        <v>276106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>321973</v>
+        <v>323628</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5173805093446593</v>
+        <v>0.5173805093446594</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4762256861272436</v>
+        <v>0.4786542772289774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5581673889531266</v>
+        <v>0.5610376479082264</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>646</v>
@@ -6618,19 +6618,19 @@
         <v>373950</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>351658</v>
+        <v>349883</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>396812</v>
+        <v>395545</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4610104906022842</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4335284036470066</v>
+        <v>0.4313407705930215</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4891953223429235</v>
+        <v>0.4876334508257921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>992</v>
@@ -6639,19 +6639,19 @@
         <v>672395</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>641792</v>
+        <v>643175</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>706317</v>
+        <v>704330</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4844374484128417</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4623887750890331</v>
+        <v>0.4633849625556141</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5088771714383599</v>
+        <v>0.5074450430853863</v>
       </c>
     </row>
     <row r="5">
@@ -6668,19 +6668,19 @@
         <v>153569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135303</v>
+        <v>133046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>176617</v>
+        <v>172747</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2662258658160233</v>
+        <v>0.2662258658160234</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2345599787426501</v>
+        <v>0.2306469146165059</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.306181168929744</v>
+        <v>0.2994709103616483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -6689,19 +6689,19 @@
         <v>250006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>228987</v>
+        <v>230203</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>270382</v>
+        <v>272304</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3082111275745681</v>
+        <v>0.3082111275745682</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2822982872423426</v>
+        <v>0.283797458077059</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3333303118453688</v>
+        <v>0.3357000285763552</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>608</v>
@@ -6710,19 +6710,19 @@
         <v>403576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>373255</v>
+        <v>372342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>432943</v>
+        <v>432782</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2907623670840336</v>
+        <v>0.2907623670840337</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2689174637721422</v>
+        <v>0.2682592002384807</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.311920320039965</v>
+        <v>0.3118046485262027</v>
       </c>
     </row>
     <row r="6">
@@ -6739,19 +6739,19 @@
         <v>64380</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50973</v>
+        <v>49779</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81805</v>
+        <v>80729</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1116074586232983</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08836673689870954</v>
+        <v>0.08629662990618578</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1418166344985097</v>
+        <v>0.1399506592440822</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>191</v>
@@ -6760,19 +6760,19 @@
         <v>103211</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89452</v>
+        <v>89644</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>117979</v>
+        <v>117790</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.127240456102796</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.11027757536169</v>
+        <v>0.1105140401613728</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1454466456178316</v>
+        <v>0.145213596493545</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>267</v>
@@ -6781,19 +6781,19 @@
         <v>167591</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>147597</v>
+        <v>146797</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>191456</v>
+        <v>189978</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1207434993769428</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1063381532288337</v>
+        <v>0.1057619726965254</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1379377364583735</v>
+        <v>0.1368726196395557</v>
       </c>
     </row>
     <row r="7">
@@ -6810,19 +6810,19 @@
         <v>43094</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>32941</v>
+        <v>32666</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54934</v>
+        <v>55665</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07470692635182245</v>
+        <v>0.07470692635182247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05710660654507174</v>
+        <v>0.05662882677434796</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09523323457743128</v>
+        <v>0.09650068738001226</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -6831,19 +6831,19 @@
         <v>61367</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51233</v>
+        <v>51252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74846</v>
+        <v>73873</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.07565388639294722</v>
+        <v>0.07565388639294721</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06316030621833939</v>
+        <v>0.06318453452989817</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09227061965886567</v>
+        <v>0.09107148410146215</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>168</v>
@@ -6852,19 +6852,19 @@
         <v>104461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89270</v>
+        <v>88694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>122790</v>
+        <v>119766</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07526033688867789</v>
+        <v>0.07526033688867791</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06431584713218697</v>
+        <v>0.06390122505892167</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08846601850258407</v>
+        <v>0.08628744640627037</v>
       </c>
     </row>
     <row r="8">
@@ -6881,19 +6881,19 @@
         <v>17351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11556</v>
+        <v>10819</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25231</v>
+        <v>25426</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03007923986419669</v>
+        <v>0.0300792398641967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02003393908500667</v>
+        <v>0.01875575528792181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0437408326007109</v>
+        <v>0.04407760037180403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>39</v>
@@ -6902,19 +6902,19 @@
         <v>22618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15876</v>
+        <v>15887</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>30469</v>
+        <v>29994</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02788403932740438</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01957199725329112</v>
+        <v>0.01958533390137913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03756273810732275</v>
+        <v>0.03697639291335894</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>63</v>
@@ -6923,19 +6923,19 @@
         <v>39969</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>30621</v>
+        <v>30364</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51047</v>
+        <v>52369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02879634823750392</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0220612506633105</v>
+        <v>0.02187632584860177</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03677727598242801</v>
+        <v>0.03773026037515312</v>
       </c>
     </row>
     <row r="9">
@@ -7027,19 +7027,19 @@
         <v>1289855</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1238204</v>
+        <v>1235145</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1348239</v>
+        <v>1343692</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5805702396048446</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5573215502990982</v>
+        <v>0.5559448804435368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6068488906612067</v>
+        <v>0.6048024124232229</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1561</v>
@@ -7048,19 +7048,19 @@
         <v>1212159</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1169743</v>
+        <v>1168422</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1256122</v>
+        <v>1253023</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5592077018616405</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5396397930665041</v>
+        <v>0.5390304221552488</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5794891680402805</v>
+        <v>0.5780594061975005</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2632</v>
@@ -7069,19 +7069,19 @@
         <v>2502015</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2434528</v>
+        <v>2430323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2565570</v>
+        <v>2566599</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5700205396831876</v>
+        <v>0.5700205396831877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5546452161725104</v>
+        <v>0.5536873107445799</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5844999764654638</v>
+        <v>0.5847344022919142</v>
       </c>
     </row>
     <row r="11">
@@ -7098,19 +7098,19 @@
         <v>676331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>628909</v>
+        <v>635033</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>726007</v>
+        <v>724978</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3044198390406949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2830749177145943</v>
+        <v>0.285831308535616</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3267792119112198</v>
+        <v>0.3263162455082799</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1004</v>
@@ -7119,19 +7119,19 @@
         <v>705661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667876</v>
+        <v>664886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>745613</v>
+        <v>746221</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.3255440715327977</v>
+        <v>0.3255440715327978</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3081126801653007</v>
+        <v>0.3067333184263547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3439751464229208</v>
+        <v>0.3442557135677459</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1660</v>
@@ -7140,19 +7140,19 @@
         <v>1381992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1317684</v>
+        <v>1325251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1445857</v>
+        <v>1451865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3148518540262691</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3002007741388615</v>
+        <v>0.3019247914868534</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3294016852751434</v>
+        <v>0.3307704323413542</v>
       </c>
     </row>
     <row r="12">
@@ -7169,19 +7169,19 @@
         <v>177741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>151717</v>
+        <v>151115</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>205092</v>
+        <v>204808</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0800022147927676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06828849188217194</v>
+        <v>0.06801771154698801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09231282631306335</v>
+        <v>0.0921849186614238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>208</v>
@@ -7190,19 +7190,19 @@
         <v>150838</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>131166</v>
+        <v>132361</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>172896</v>
+        <v>173968</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.06958657133952161</v>
+        <v>0.06958657133952162</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06051121340082435</v>
+        <v>0.06106212430378921</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07976238014972774</v>
+        <v>0.08025702959943053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>379</v>
@@ -7211,19 +7211,19 @@
         <v>328580</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>296243</v>
+        <v>296032</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>364242</v>
+        <v>366575</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07485854159047348</v>
+        <v>0.07485854159047349</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06749138782744032</v>
+        <v>0.06744341652908585</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08298332735879965</v>
+        <v>0.08351479120534348</v>
       </c>
     </row>
     <row r="13">
@@ -7240,19 +7240,19 @@
         <v>49366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37238</v>
+        <v>37308</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>66776</v>
+        <v>66286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02221996159506677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01676094412243611</v>
+        <v>0.01679272012429632</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0300560864224512</v>
+        <v>0.02983584755369388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -7261,19 +7261,19 @@
         <v>72471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59483</v>
+        <v>58673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87441</v>
+        <v>87514</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03343301419693297</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02744131624256741</v>
+        <v>0.02706768479933312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04033937513995901</v>
+        <v>0.04037293637881588</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -7282,19 +7282,19 @@
         <v>121837</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>103811</v>
+        <v>103874</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145496</v>
+        <v>144437</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02775742823772136</v>
+        <v>0.02775742823772135</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02365063185969474</v>
+        <v>0.02366502890107441</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03314759353961181</v>
+        <v>0.03290625665352227</v>
       </c>
     </row>
     <row r="14">
@@ -7311,19 +7311,19 @@
         <v>28411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19508</v>
+        <v>19216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40780</v>
+        <v>39705</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01278774496662613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008780636289086353</v>
+        <v>0.008649297578361859</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01835535584325973</v>
+        <v>0.01787142730759252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -7332,19 +7332,19 @@
         <v>26507</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18687</v>
+        <v>19120</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37034</v>
+        <v>37334</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01222864106910716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008621101432770039</v>
+        <v>0.008820707715971498</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01708480844751068</v>
+        <v>0.0172233122145865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>68</v>
@@ -7353,19 +7353,19 @@
         <v>54918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41622</v>
+        <v>42680</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68448</v>
+        <v>69585</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01251163646234834</v>
+        <v>0.01251163646234833</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009482470788856199</v>
+        <v>0.009723664926431104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01559422364386344</v>
+        <v>0.0158532649233529</v>
       </c>
     </row>
     <row r="15">
@@ -7457,19 +7457,19 @@
         <v>472826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>444205</v>
+        <v>445873</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>498480</v>
+        <v>497151</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.6679337114162754</v>
+        <v>0.6679337114162756</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6275031082850979</v>
+        <v>0.6298586215500067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.704173527097358</v>
+        <v>0.7022962197025324</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>678</v>
@@ -7478,19 +7478,19 @@
         <v>509647</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>486380</v>
+        <v>487797</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>531657</v>
+        <v>530366</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6957658940072797</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.664001640414796</v>
+        <v>0.6659360185316295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7258139699169667</v>
+        <v>0.7240509421763752</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1113</v>
@@ -7499,19 +7499,19 @@
         <v>982473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>947177</v>
+        <v>946825</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1012283</v>
+        <v>1018660</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.6820875202060245</v>
+        <v>0.6820875202060246</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6575833032853492</v>
+        <v>0.6573386239414475</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7027834093530448</v>
+        <v>0.7072109981333499</v>
       </c>
     </row>
     <row r="17">
@@ -7528,19 +7528,19 @@
         <v>182615</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159464</v>
+        <v>160093</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207187</v>
+        <v>206574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2579704281661386</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.22526513767346</v>
+        <v>0.226154668291241</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.292681648494968</v>
+        <v>0.2918155716094613</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>262</v>
@@ -7549,19 +7549,19 @@
         <v>181195</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161034</v>
+        <v>161744</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202554</v>
+        <v>202132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2473653449095683</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2198428248856216</v>
+        <v>0.2208114874619653</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2765243958966424</v>
+        <v>0.2759488618567362</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>454</v>
@@ -7570,19 +7570,19 @@
         <v>363810</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>333627</v>
+        <v>332311</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>396542</v>
+        <v>396901</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2525773074461925</v>
+        <v>0.2525773074461926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2316222535218309</v>
+        <v>0.2307085685890266</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2753019194048942</v>
+        <v>0.2755509222697168</v>
       </c>
     </row>
     <row r="18">
@@ -7599,19 +7599,19 @@
         <v>36111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25445</v>
+        <v>25656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52280</v>
+        <v>53293</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05101228311104933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03594501091434348</v>
+        <v>0.03624324825372519</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07385250310270232</v>
+        <v>0.07528436154217934</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -7620,19 +7620,19 @@
         <v>21690</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14016</v>
+        <v>15096</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32294</v>
+        <v>30764</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02961150628808709</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01913503971587338</v>
+        <v>0.02060954662215381</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04408723873328301</v>
+        <v>0.04199853308056347</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>65</v>
@@ -7641,19 +7641,19 @@
         <v>57802</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>44370</v>
+        <v>43659</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>75394</v>
+        <v>75035</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04012910849425863</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03080387985598691</v>
+        <v>0.03031046562616964</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0523426149047117</v>
+        <v>0.05209345074634808</v>
       </c>
     </row>
     <row r="19">
@@ -7670,19 +7670,19 @@
         <v>12783</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6529</v>
+        <v>6318</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22142</v>
+        <v>23257</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01805834490950921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009223069012322362</v>
+        <v>0.008924816452606265</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03127834108689469</v>
+        <v>0.03285324516770177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -7691,19 +7691,19 @@
         <v>14018</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9222</v>
+        <v>8781</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20922</v>
+        <v>21509</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01913686122889845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.012589807975354</v>
+        <v>0.01198770848285469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02856305365307595</v>
+        <v>0.0293644336980299</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -7712,19 +7712,19 @@
         <v>26801</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18410</v>
+        <v>18632</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>38405</v>
+        <v>39045</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01860681478647075</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01278112601589846</v>
+        <v>0.01293538221495557</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02666319328772943</v>
+        <v>0.02710715856232768</v>
       </c>
     </row>
     <row r="20">
@@ -7741,19 +7741,19 @@
         <v>3557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1237</v>
+        <v>936</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10409</v>
+        <v>10143</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.005025232397027496</v>
+        <v>0.005025232397027495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001747834006516694</v>
+        <v>0.001322524533580522</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01470462261690898</v>
+        <v>0.01432860205177774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -7762,19 +7762,19 @@
         <v>5948</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2723</v>
+        <v>3025</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10991</v>
+        <v>11642</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008120393566166539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003717050943536572</v>
+        <v>0.004129771452959943</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01500497851153686</v>
+        <v>0.01589378595245795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -7783,19 +7783,19 @@
         <v>9505</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5008</v>
+        <v>5350</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16327</v>
+        <v>17301</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006599249067053572</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003476958040106457</v>
+        <v>0.003714376980459974</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01133517671220778</v>
+        <v>0.01201143378109303</v>
       </c>
     </row>
     <row r="21">
@@ -7887,19 +7887,19 @@
         <v>2061126</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1991570</v>
+        <v>1998893</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2123213</v>
+        <v>2125290</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5878122574898769</v>
+        <v>0.587812257489877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5679755707560225</v>
+        <v>0.5700640270141939</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6055187881234777</v>
+        <v>0.6061111917941362</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2885</v>
@@ -7908,19 +7908,19 @@
         <v>2095756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2043974</v>
+        <v>2042509</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2147770</v>
+        <v>2149518</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5646978806512444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.550745152863712</v>
+        <v>0.5503504422341262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5787129684344288</v>
+        <v>0.5791838036766678</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4737</v>
@@ -7929,19 +7929,19 @@
         <v>4156883</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4077506</v>
+        <v>4061088</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4241767</v>
+        <v>4234925</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5759270549749309</v>
+        <v>0.5759270549749308</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5649295148383088</v>
+        <v>0.5626548173578324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5876874895734897</v>
+        <v>0.5867396073061992</v>
       </c>
     </row>
     <row r="23">
@@ -7958,19 +7958,19 @@
         <v>1012516</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>959355</v>
+        <v>957063</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1072224</v>
+        <v>1069553</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2887592124241884</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2735983648197421</v>
+        <v>0.2729447366253682</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3057873220688592</v>
+        <v>0.3050257828438364</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1689</v>
@@ -7979,19 +7979,19 @@
         <v>1136862</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1088618</v>
+        <v>1090463</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1185597</v>
+        <v>1185189</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3063255628351058</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2933260648469754</v>
+        <v>0.2938233280376619</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3194569019565427</v>
+        <v>0.3193471914466032</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2722</v>
@@ -8000,19 +8000,19 @@
         <v>2149378</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2070291</v>
+        <v>2073230</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2222368</v>
+        <v>2231438</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2977916701685526</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2868342502360884</v>
+        <v>0.2872414984832211</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3079042444614349</v>
+        <v>0.3091608237855686</v>
       </c>
     </row>
     <row r="24">
@@ -8029,19 +8029,19 @@
         <v>278232</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>246280</v>
+        <v>245699</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>312789</v>
+        <v>313264</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07934895159030592</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07023667001871434</v>
+        <v>0.07007096731597014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08920439074637158</v>
+        <v>0.08933974450445396</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>430</v>
@@ -8050,19 +8050,19 @@
         <v>275740</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>248528</v>
+        <v>250107</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>306690</v>
+        <v>306011</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07429772967965786</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0669653709627685</v>
+        <v>0.06739097750439371</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08263695085797533</v>
+        <v>0.08245401696206514</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>711</v>
@@ -8071,19 +8071,19 @@
         <v>553972</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>510399</v>
+        <v>513688</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>595871</v>
+        <v>597885</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.07675165918761198</v>
+        <v>0.07675165918761197</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07071466411533074</v>
+        <v>0.07117034458374337</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08255662970465373</v>
+        <v>0.08283569755583768</v>
       </c>
     </row>
     <row r="25">
@@ -8100,19 +8100,19 @@
         <v>105243</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>86451</v>
+        <v>86555</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124992</v>
+        <v>125599</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03001435887300973</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02465492738200972</v>
+        <v>0.02468471578995672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03564631906053197</v>
+        <v>0.03581961552371964</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>236</v>
@@ -8121,19 +8121,19 @@
         <v>147855</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>130239</v>
+        <v>130510</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>170298</v>
+        <v>167054</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03983932958295438</v>
+        <v>0.03983932958295439</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03509260617116834</v>
+        <v>0.03516566704999576</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04588662673410126</v>
+        <v>0.04501231201471424</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>358</v>
@@ -8142,19 +8142,19 @@
         <v>253099</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>226217</v>
+        <v>225183</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>282073</v>
+        <v>281012</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03506626952612055</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03134190186091952</v>
+        <v>0.03119865606102184</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03908055635645464</v>
+        <v>0.0389336295702516</v>
       </c>
     </row>
     <row r="26">
@@ -8171,19 +8171,19 @@
         <v>49319</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37650</v>
+        <v>37800</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64347</v>
+        <v>64228</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01406521962261906</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0107374136538219</v>
+        <v>0.01078004083648875</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01835117208508924</v>
+        <v>0.01831709168518787</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>85</v>
@@ -8192,19 +8192,19 @@
         <v>55074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>43904</v>
+        <v>43340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67583</v>
+        <v>68536</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01483949725103763</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01182991894958906</v>
+        <v>0.0116778594201925</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.018210043292097</v>
+        <v>0.01846702941928411</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>144</v>
@@ -8213,19 +8213,19 @@
         <v>104392</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>87023</v>
+        <v>87205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>125383</v>
+        <v>122331</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01446334614278405</v>
+        <v>0.01446334614278404</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01205686285642716</v>
+        <v>0.01208208321759638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01737151288469032</v>
+        <v>0.01694870016491737</v>
       </c>
     </row>
     <row r="27">
